--- a/biology/Mycologie/Hypoxylon/Hypoxylon.xlsx
+++ b/biology/Mycologie/Hypoxylon/Hypoxylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoxylon est un genre de champignons (Fungi) ascomycètes de la famille des Hypoxylaceae qui a été fondé à partir de l'espèce Hypoxylon fragiforme. Ce sont de petits champignons globuleux brun noirâtre souvent grégaires et se nourrissant de la lignine de bois en décomposition. En 2020, leur systématique est en pleine évolution.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre réunit des espèces aux stromas globuleux non zonés, à la surface irrégulièrement rugueuse et colorés de gris blanchâtre, noirâtre ou rouge sang. Leur croissance est toujours superficielle et ils persistent tout au long de l'année. Leurs spores sont brunes, présentent ou non une fente longitudinale de germination, ont une forme ellipsoïdales-reniformes ou aplaties sur le côté et mesurent de 6 à 37 μm de long[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre réunit des espèces aux stromas globuleux non zonés, à la surface irrégulièrement rugueuse et colorés de gris blanchâtre, noirâtre ou rouge sang. Leur croissance est toujours superficielle et ils persistent tout au long de l'année. Leurs spores sont brunes, présentent ou non une fente longitudinale de germination, ont une forme ellipsoïdales-reniformes ou aplaties sur le côté et mesurent de 6 à 37 μm de long
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces sont présentes sur l'ensemble de la planète avec une prédominance pour l'écozone holarctique[3], dont les pays francophones ; elles peuvent, pour certaines, être très communes. En France, 6 espèces sont présentes : Hypoxylon fragiforme, H. fuscum, H. macrocarpum, H. moravicum, H. rubiginosum et H. rutilum[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces sont présentes sur l'ensemble de la planète avec une prédominance pour l'écozone holarctique, dont les pays francophones ; elles peuvent, pour certaines, être très communes. En France, 6 espèces sont présentes : Hypoxylon fragiforme, H. fuscum, H. macrocarpum, H. moravicum, H. rubiginosum et H. rutilum.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces d'Hypoxylon sont des champignons saprotrophes agents de la pourriture fibreuse, c'est-à-dire spécialisés dans la consommation de la lignine du bois mort.
-Le genre Tremella regroupe des espèces mycoparasites et nombreuses sont celles qui sont des parasites obligatoire du genre Hypoxylon lato sensu. Tremella fuciformis est une espèce particulièrement consommée en Chine et à Taïwan et sa culture repose sur celle d'Hypoxylon archeri, aujourd'hui recombiné en Annulohypoxylon archeri. Tremella fuciformis est une levure parasite qui se développe sous forme de substance muqueuse jusqu'à ce qu'elle rencontre H. archeri. Cette levure entre alors dans son stade mycélien agressif et forme un sporophore translucide, blanchâtre et gélatineux en utilisant les nutriments obtenus à partir de son hôte. En myciculture, H. archeri est alors considéré comme un champignon précurseur[5].
-D'autres espèces de champignons parasitent le genre Hypoxylon à l'instar de Bisporella sulfurina, Polydesmia pruinosa et Cosmospora arxii[6].
+Le genre Tremella regroupe des espèces mycoparasites et nombreuses sont celles qui sont des parasites obligatoire du genre Hypoxylon lato sensu. Tremella fuciformis est une espèce particulièrement consommée en Chine et à Taïwan et sa culture repose sur celle d'Hypoxylon archeri, aujourd'hui recombiné en Annulohypoxylon archeri. Tremella fuciformis est une levure parasite qui se développe sous forme de substance muqueuse jusqu'à ce qu'elle rencontre H. archeri. Cette levure entre alors dans son stade mycélien agressif et forme un sporophore translucide, blanchâtre et gélatineux en utilisant les nutriments obtenus à partir de son hôte. En myciculture, H. archeri est alors considéré comme un champignon précurseur.
+D'autres espèces de champignons parasitent le genre Hypoxylon à l'instar de Bisporella sulfurina, Polydesmia pruinosa et Cosmospora arxii.
 </t>
         </is>
       </c>
